--- a/WebPage/Common/RptTemplet/020501Report.xlsx
+++ b/WebPage/Common/RptTemplet/020501Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B693EBDF-4B06-4588-B44A-6010A91DB8CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB8DD64-2167-4D9D-87AC-643B0F23BB46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -199,14 +199,14 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,15 +525,15 @@
       <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="K2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -545,7 +545,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -644,10 +644,10 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>

--- a/WebPage/Common/RptTemplet/020501Report.xlsx
+++ b/WebPage/Common/RptTemplet/020501Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB8DD64-2167-4D9D-87AC-643B0F23BB46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172E7B28-D910-4FFB-9F7B-F504207F16A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>卡片自取逾期明細表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -97,6 +93,10 @@
   </si>
   <si>
     <t>自取時間：$PrintDate$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片自取明細表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +494,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="A1:XFD1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -534,7 +534,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="K2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -546,42 +546,42 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="K3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -606,14 +606,14 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -645,11 +645,11 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>

--- a/WebPage/Common/RptTemplet/020501Report.xlsx
+++ b/WebPage/Common/RptTemplet/020501Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172E7B28-D910-4FFB-9F7B-F504207F16A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A996CBC4-E223-4597-8909-D4EBB3431D29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="頁尾" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -494,22 +494,23 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.75" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="24.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -524,7 +525,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -537,7 +538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -549,7 +550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -602,9 +603,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -622,7 +623,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -636,7 +637,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>

--- a/WebPage/Common/RptTemplet/020501Report.xlsx
+++ b/WebPage/Common/RptTemplet/020501Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoeChen\Desktop\CSIP_Edit\Website\csip_cardflow_sit\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A996CBC4-E223-4597-8909-D4EBB3431D29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE342EC5-AA43-467C-9A1C-C2A387C87492}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -97,6 +97,14 @@
   </si>
   <si>
     <t>卡片自取明細表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正卡姓名_羅馬拼音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片姓名_羅馬拼音</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -204,6 +212,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,54 +502,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="12.3984375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.59765625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="17.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.3984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" ht="27.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -546,11 +564,13 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="K3" s="7" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -564,30 +584,36 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -603,7 +629,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
